--- a/extracted_data.xlsx
+++ b/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,19 +689,1701 @@
           <t>Professional Courier_Apr 2025.pdf</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>27-05-2025</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Porter_courier_invoice_CR75867151_Jan 2024.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>34.06</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>06-01-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>600042</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>invoice_CRN1034196112 (1).pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>228.04</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20-12-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>invoice_CRN1034196112.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>228.04</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20-12-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>invoice_CRN1038239370.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>144.36</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>23-12-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>600004</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>invoice_CRN1042901933.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>111.33</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20-12-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>invoice_CRN1061121465.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>80.45</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17-12-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>600096</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>invoice_CRN1071497967.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>176.69</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>05-12-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>invoice_CRN1099935329.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>300.79</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>11-12-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>invoice_CRN1125298557.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>126.84</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>31-12-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>invoice_CRN1134338284.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>88.31999999999999</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>31-12-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>invoice_CRN1137214981.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>04-12-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>invoice_CRN1164672554.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>58.26</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13-12-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>invoice_CRN1208749954.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>46.34</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>24-12-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>invoice_CRN1211319406.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>149.31</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19-12-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>invoice_CRN1272375990.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>165.71</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>23-12-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>600002</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>invoice_CRN1278195064.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>194.76</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>19-12-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>invoice_CRN1283531934.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>144.95</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>19-12-2024</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>invoice_CRN1304652896.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>120.64</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>28-12-2024</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>invoice_CRN1306339888.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>156.71</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>24-12-2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>invoice_CRN1313488067.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>149.01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16-12-2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>invoice_CRN1340959333.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>114.12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>30-12-2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>600091</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>invoice_CRN1344758714.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>26-12-2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>invoice_CRN1354351980.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>invoice_CRN1384142034.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>119.12</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>28-12-2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>invoice_CRN1396323255.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>219.77</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>03-12-2024</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>invoice_CRN1422508161.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>225.14</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>19-12-2024</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>invoice_CRN1470126383.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>104.29</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>24-12-2024</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>invoice_CRN1517725048.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>137.78</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>17-12-2024</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>invoice_CRN1524853774.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>154.69</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>31-12-2024</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>invoice_CRN1528696823.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>100.59</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>05-12-2024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>invoice_CRN1537586691.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>47</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>03-12-2024</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>invoice_CRN1545877793.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>45.62</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>23-12-2024</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>invoice_CRN1579978691.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>60.59</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>14-12-2024</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>invoice_CRN1590696956.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>158.43</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>03-12-2024</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>invoice_CRN1591407165.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>24-12-2024</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>invoice_CRN1622495618.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>117.31</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>13-12-2024</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>invoice_CRN1627932796.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>117.99</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>19-12-2024</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>600098</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>invoice_CRN1666775087.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>137.02</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>600100</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>invoice_CRN1698099700.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>135.24</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>05-12-2024</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>invoice_CRN1710176490.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>03-12-2024</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>invoice_CRN1725600138.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>20-12-2024</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>invoice_CRN1756882144.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>136.24</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>13-12-2024</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>invoice_CRN1758272263.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>26-12-2024</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>600088</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>invoice_CRN1777710912.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>100.93</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>27-12-2024</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>invoice_CRN1789228846.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>124.93</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>21-12-2024</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>invoice_CRN1792453732.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>138.02</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>02-12-2024</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>invoice_CRN1810738404.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>457.95</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>11-12-2024</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>invoice_CRN1829734985.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>55.07</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>13-06-2024</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>600082</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>invoice_CRN1834693947.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>130.17</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>20-12-2024</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>invoice_CRN1837539157.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>144.88</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>10-12-2024</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>600116</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>invoice_CRN1842868249.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>84.33</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>09-12-2024</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>invoice_CRN1844775155.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>111.33</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>06-12-2024</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>invoice_CRN1844935409.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>102.43</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>04-12-2024</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>invoice_CRN1862635209.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>21-12-2024</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>invoice_CRN1881049395.pdf</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>123.41</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>26-12-2024</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>invoice_CRN1910136362.pdf</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>45.63</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>24-12-2024</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>invoice_CRN1927312282.pdf</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>116.84</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>24-12-2024</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>invoice_CRN1927515849.pdf</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>21-12-2024</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>600022</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>invoice_CRN1930175585.pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>03-12-2024</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>invoice_CRN1944321373.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>104.77</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>14-12-2024</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>invoice_CRN1952018567.pdf</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>275.07</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>30-12-2024</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>invoice_CRN1971218787.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>140.56</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>11-12-2024</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>invoice_CRN1972885887.pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>109.56</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>17-12-2024</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>invoice_CRN1996754206.pdf</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>143.19</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>30-12-2024</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>invoice_CRN2001250704.pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>27-12-2024</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>600026</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>invoice_CRN2001524728.pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>149.01</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>16-12-2024</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>invoice_CRN2060282435.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>14-12-2024</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>invoice_CRN2075552177.pdf</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>70</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>21-12-2024</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>invoice_CRN2075876364.pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>165.65</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>11-12-2024</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>invoice_CRN2092093899.pdf</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>167.84</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>13-12-2024</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>invoice_CRN2109207680.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>239.34</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>12-12-2024</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>invoice_CRN2121813397.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>120.98</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>30-12-2024</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>invoice_CRN2133044232.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159.66</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>17-12-2024</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>600094</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>invoice_CRN2135404530.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>24-12-2024</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>invoice_CRN1180750326.pdf</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>153.53</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>02-12-2024</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>invoice_CRN1010736381.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>50.94</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>06-12-2024</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>invoice_CRN1017378137.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>141.53</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>09-12-2024</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>600093</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>invoice_CRN1020644740.pdf</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>14-12-2024</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>600042</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>invoice_CRN1022999145.pdf</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>27-12-2024</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>600042</t>
         </is>
       </c>
     </row>
